--- a/GameOfLifeTestingPlan.xlsx
+++ b/GameOfLifeTestingPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Input File</t>
   </si>
@@ -162,6 +162,60 @@
   </si>
   <si>
     <t>Continuously dissolves into various shapes and forms for an lenthly period of time</t>
+  </si>
+  <si>
+    <t>Dissolves into various patterns until it finally forms 4 blocks as in the test program</t>
+  </si>
+  <si>
+    <t>Dissolves and forms into 4 hook-like shapes at the edge of the board</t>
+  </si>
+  <si>
+    <t>Same as test program except that there are organisms still hanging around at the edge of the board</t>
+  </si>
+  <si>
+    <t>Same as test program except there is one organism handing out on one side of the board</t>
+  </si>
+  <si>
+    <t>Seems to mimic patterns from the test program except it seems to be a mix of both narrow versions from the test program and new shapes</t>
+  </si>
+  <si>
+    <t>Mostly the same except by the 3rd generation, the organisms toward the bottom of the board in the test program are near the top of the board in the actual program</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Might be due to bugs relating to the edge of the board</t>
+  </si>
+  <si>
+    <t>Simple Test</t>
+  </si>
+  <si>
+    <t>Complex Test</t>
+  </si>
+  <si>
+    <t>Test for Organisms at the edge of the board</t>
+  </si>
+  <si>
+    <t>Simple Row Test</t>
+  </si>
+  <si>
+    <t>Test for any change in organism behavior</t>
+  </si>
+  <si>
+    <t>Test large packs of organisms at edge of board</t>
+  </si>
+  <si>
+    <t>Test for complex shapes and patterns</t>
+  </si>
+  <si>
+    <t>Self explanatory from input file description</t>
+  </si>
+  <si>
+    <t>Test for organisms grouped together in the form of a pencil</t>
+  </si>
+  <si>
+    <t>Test for organisms grouped together in the form of several skyscrapers</t>
   </si>
 </sst>
 </file>
@@ -628,7 +682,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thick">
@@ -637,19 +691,13 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -659,11 +707,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -673,15 +718,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,19 +733,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -748,9 +774,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,6 +784,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1046,238 +1135,316 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="I5" s="29"/>
+      <c r="D5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="D7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="D8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24"/>
+      <c r="D9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
+      <c r="D10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
+      <c r="D12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="D13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="D14" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="D15" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="50"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
